--- a/ConceptMap-R5-EncounterHistory-elements-for-R4-Encounter.xlsx
+++ b/ConceptMap-R5-EncounterHistory-elements-for-R4-Encounter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:32.3951023-06:00</t>
+    <t>2026-02-09T22:05:43.8084967-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -165,9 +165,6 @@
     <t>encounter</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.encounter</t>
-  </si>
-  <si>
     <t>EncounterHistory.identifier</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/Encounter#Encounter.serviceType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.serviceType</t>
-  </si>
-  <si>
     <t>EncounterHistory.subject</t>
   </si>
   <si>
@@ -225,45 +219,30 @@
     <t>http://hl7.org/fhir/StructureDefinition/Encounter#Encounter.subject</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter#Encounter.patient</t>
-  </si>
-  <si>
     <t>EncounterHistory.subjectStatus</t>
   </si>
   <si>
     <t>subjectStatus</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.subjectStatus</t>
-  </si>
-  <si>
     <t>EncounterHistory.actualPeriod</t>
   </si>
   <si>
     <t>actualPeriod</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.actualPeriod</t>
-  </si>
-  <si>
     <t>EncounterHistory.plannedStartDate</t>
   </si>
   <si>
     <t>plannedStartDate</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.plannedStartDate</t>
-  </si>
-  <si>
     <t>EncounterHistory.plannedEndDate</t>
   </si>
   <si>
     <t>plannedEndDate</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.plannedEndDate</t>
-  </si>
-  <si>
     <t>EncounterHistory.length</t>
   </si>
   <si>
@@ -292,9 +271,6 @@
   </si>
   <si>
     <t>form</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-EncounterHistory.location.form</t>
   </si>
 </sst>
 </file>
@@ -551,7 +527,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -676,124 +652,124 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>52</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -806,100 +782,61 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="E26" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-EncounterHistory-elements-for-R4-Encounter.xlsx
+++ b/ConceptMap-R5-EncounterHistory-elements-for-R4-Encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.8084967-06:00</t>
+    <t>2026-02-17T14:42:27.2137667-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
